--- a/raw_data/20200818_saline/20200818_Sensor2_Test_91.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_91.xlsx
@@ -1,1279 +1,1695 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28DCFD-1886-478F-BF98-99E9566E5BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>81371.708745</v>
+        <v>81371.708744999996</v>
       </c>
       <c r="B2" s="1">
-        <v>22.603252</v>
+        <v>22.603252000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1235.100000</v>
+        <v>1235.0999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-301.526000</v>
+        <v>-301.52600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>81382.086571</v>
+        <v>81382.086571000007</v>
       </c>
       <c r="G2" s="1">
-        <v>22.606135</v>
+        <v>22.606134999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1259.860000</v>
+        <v>1259.8599999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.434000</v>
+        <v>-260.43400000000003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>81392.877998</v>
+        <v>81392.877997999996</v>
       </c>
       <c r="L2" s="1">
         <v>22.609133</v>
       </c>
       <c r="M2" s="1">
-        <v>1296.480000</v>
+        <v>1296.48</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.706000</v>
+        <v>-199.70599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>81403.700206</v>
+        <v>81403.700205999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.612139</v>
+        <v>22.612138999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="S2" s="1">
-        <v>-181.794000</v>
+        <v>-181.79400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>81413.965937</v>
+        <v>81413.965937000001</v>
       </c>
       <c r="V2" s="1">
         <v>22.614991</v>
       </c>
       <c r="W2" s="1">
-        <v>1321.200000</v>
+        <v>1321.2</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.164000</v>
+        <v>-168.16399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>81424.139844</v>
+        <v>81424.139844000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.617817</v>
+        <v>22.617816999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1338.090000</v>
+        <v>1338.09</v>
       </c>
       <c r="AC2" s="1">
-        <v>-165.253000</v>
+        <v>-165.25299999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>81434.431334</v>
+        <v>81434.431333999994</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.620675</v>
+        <v>22.620674999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH2" s="1">
-        <v>-174.256000</v>
+        <v>-174.256</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>81444.524920</v>
+        <v>81444.524919999996</v>
       </c>
       <c r="AK2" s="1">
         <v>22.623479</v>
       </c>
       <c r="AL2" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="AM2" s="1">
-        <v>-203.024000</v>
+        <v>-203.024</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>81455.129882</v>
+        <v>81455.129881999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.626425</v>
+        <v>22.626425000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1391.240000</v>
+        <v>1391.24</v>
       </c>
       <c r="AR2" s="1">
-        <v>-245.634000</v>
+        <v>-245.63399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>81465.764108</v>
+        <v>81465.764108000003</v>
       </c>
       <c r="AU2" s="1">
         <v>22.629379</v>
       </c>
       <c r="AV2" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-304.147000</v>
+        <v>-304.14699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>81477.242526</v>
+        <v>81477.242526000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.632567</v>
+        <v>22.632567000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB2" s="1">
-        <v>-355.004000</v>
+        <v>-355.00400000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>81488.203615</v>
+        <v>81488.203615000006</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.635612</v>
+        <v>22.635611999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1517.310000</v>
+        <v>1517.31</v>
       </c>
       <c r="BG2" s="1">
-        <v>-597.352000</v>
+        <v>-597.35199999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>81499.201408</v>
+        <v>81499.201407999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.638667</v>
+        <v>22.638667000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1669.370000</v>
+        <v>1669.37</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1030.270000</v>
+        <v>-1030.27</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>81510.611414</v>
+        <v>81510.611413999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.641837</v>
+        <v>22.641836999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1958.800000</v>
+        <v>1958.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1777.810000</v>
+        <v>-1777.81</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>81520.958419</v>
+        <v>81520.958419000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.644711</v>
+        <v>22.644711000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2337.900000</v>
+        <v>2337.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2636.170000</v>
+        <v>-2636.17</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>81532.128325</v>
+        <v>81532.128324999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.647813</v>
+        <v>22.647812999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2809.350000</v>
+        <v>2809.35</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3576.750000</v>
+        <v>-3576.75</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>81543.779571</v>
+        <v>81543.779571000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.651050</v>
+        <v>22.651050000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4180.600000</v>
+        <v>4180.6000000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5835.180000</v>
+        <v>-5835.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>81372.053998</v>
+        <v>81372.053998000003</v>
       </c>
       <c r="B3" s="1">
         <v>22.603348</v>
       </c>
       <c r="C3" s="1">
-        <v>1234.990000</v>
+        <v>1234.99</v>
       </c>
       <c r="D3" s="1">
-        <v>-301.833000</v>
+        <v>-301.83300000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81382.452091</v>
+        <v>81382.452090999999</v>
       </c>
       <c r="G3" s="1">
         <v>22.606237</v>
       </c>
       <c r="H3" s="1">
-        <v>1260.460000</v>
+        <v>1260.46</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.271000</v>
+        <v>-261.27100000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>81393.574916</v>
+        <v>81393.574915999998</v>
       </c>
       <c r="L3" s="1">
-        <v>22.609326</v>
+        <v>22.609325999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1296.200000</v>
+        <v>1296.2</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.775000</v>
+        <v>-199.77500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>81403.807876</v>
+        <v>81403.807876000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.612169</v>
+        <v>22.612169000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1308.160000</v>
+        <v>1308.1600000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-181.744000</v>
+        <v>-181.744</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>81414.350304</v>
+        <v>81414.350304000007</v>
       </c>
       <c r="V3" s="1">
-        <v>22.615097</v>
+        <v>22.615096999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1321.070000</v>
+        <v>1321.07</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.907000</v>
+        <v>-167.90700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>81424.490312</v>
+        <v>81424.490311999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.617914</v>
+        <v>22.617913999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1338.100000</v>
+        <v>1338.1</v>
       </c>
       <c r="AC3" s="1">
-        <v>-165.171000</v>
+        <v>-165.17099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>81434.782006</v>
+        <v>81434.782005999994</v>
       </c>
       <c r="AF3" s="1">
         <v>22.620773</v>
       </c>
       <c r="AG3" s="1">
-        <v>1350.620000</v>
+        <v>1350.62</v>
       </c>
       <c r="AH3" s="1">
-        <v>-174.292000</v>
+        <v>-174.292</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>81444.910808</v>
+        <v>81444.910808000001</v>
       </c>
       <c r="AK3" s="1">
         <v>22.623586</v>
       </c>
       <c r="AL3" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM3" s="1">
-        <v>-203.015000</v>
+        <v>-203.01499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>81455.551482</v>
+        <v>81455.551481999995</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.626542</v>
+        <v>22.626542000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="AR3" s="1">
-        <v>-245.614000</v>
+        <v>-245.614</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>81466.174333</v>
+        <v>81466.174333000003</v>
       </c>
       <c r="AU3" s="1">
         <v>22.629493</v>
       </c>
       <c r="AV3" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW3" s="1">
-        <v>-304.131000</v>
+        <v>-304.13099999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>81477.678012</v>
+        <v>81477.678012000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.632688</v>
+        <v>22.632688000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB3" s="1">
-        <v>-355.016000</v>
+        <v>-355.01600000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>81488.606863</v>
+        <v>81488.606862999994</v>
       </c>
       <c r="BE3" s="1">
         <v>22.635724</v>
       </c>
       <c r="BF3" s="1">
-        <v>1517.300000</v>
+        <v>1517.3</v>
       </c>
       <c r="BG3" s="1">
-        <v>-597.405000</v>
+        <v>-597.40499999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>81499.580353</v>
+        <v>81499.580352999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.638772</v>
+        <v>22.638771999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1669.340000</v>
+        <v>1669.34</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1030.340000</v>
+        <v>-1030.3399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>81511.037441</v>
+        <v>81511.037440999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.641955</v>
+        <v>22.641954999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1958.600000</v>
+        <v>1958.6</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1777.970000</v>
+        <v>-1777.97</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>81521.459380</v>
+        <v>81521.45938</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.644850</v>
+        <v>22.644850000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2338.110000</v>
+        <v>2338.11</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2636.630000</v>
+        <v>-2636.63</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>81532.598051</v>
+        <v>81532.598050999994</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.647944</v>
+        <v>22.647943999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2809.750000</v>
+        <v>2809.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3576.540000</v>
+        <v>-3576.54</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>81544.336357</v>
+        <v>81544.336356999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.651205</v>
+        <v>22.651205000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4184.590000</v>
+        <v>4184.59</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5823.000000</v>
+        <v>-5823</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>81372.735961</v>
+        <v>81372.735960999998</v>
       </c>
       <c r="B4" s="1">
         <v>22.603538</v>
       </c>
       <c r="C4" s="1">
-        <v>1234.910000</v>
+        <v>1234.9100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-301.454000</v>
+        <v>-301.45400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>81383.103339</v>
+        <v>81383.103338999994</v>
       </c>
       <c r="G4" s="1">
-        <v>22.606418</v>
+        <v>22.606418000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1261.110000</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.571000</v>
+        <v>-261.57100000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>81393.949356</v>
+        <v>81393.949355999997</v>
       </c>
       <c r="L4" s="1">
-        <v>22.609430</v>
+        <v>22.60943</v>
       </c>
       <c r="M4" s="1">
-        <v>1296.130000</v>
+        <v>1296.1300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.088000</v>
+        <v>-200.08799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>81404.148094</v>
+        <v>81404.148094000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.612263</v>
+        <v>22.612262999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1308.180000</v>
+        <v>1308.18</v>
       </c>
       <c r="S4" s="1">
-        <v>-181.809000</v>
+        <v>-181.809</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>81414.705936</v>
+        <v>81414.705935999998</v>
       </c>
       <c r="V4" s="1">
-        <v>22.615196</v>
+        <v>22.615196000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1321.160000</v>
+        <v>1321.16</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.969000</v>
+        <v>-167.96899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>81424.840376</v>
+        <v>81424.840375999993</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.618011</v>
+        <v>22.618010999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1338.060000</v>
+        <v>1338.06</v>
       </c>
       <c r="AC4" s="1">
-        <v>-165.184000</v>
+        <v>-165.184</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>81435.123254</v>
+        <v>81435.123254000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.620868</v>
+        <v>22.620868000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1350.640000</v>
+        <v>1350.64</v>
       </c>
       <c r="AH4" s="1">
-        <v>-174.252000</v>
+        <v>-174.25200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>81445.333400</v>
+        <v>81445.333400000003</v>
       </c>
       <c r="AK4" s="1">
         <v>22.623704</v>
       </c>
       <c r="AL4" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="AM4" s="1">
-        <v>-202.997000</v>
+        <v>-202.99700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>81455.889290</v>
+        <v>81455.889290000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.626636</v>
+        <v>22.626636000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1391.270000</v>
+        <v>1391.27</v>
       </c>
       <c r="AR4" s="1">
-        <v>-245.644000</v>
+        <v>-245.64400000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>81466.516043</v>
+        <v>81466.516042999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.629588</v>
+        <v>22.629587999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1414.970000</v>
+        <v>1414.97</v>
       </c>
       <c r="AW4" s="1">
-        <v>-304.166000</v>
+        <v>-304.166</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>81478.039140</v>
+        <v>81478.039139999993</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.632789</v>
+        <v>22.632788999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1433.670000</v>
+        <v>1433.67</v>
       </c>
       <c r="BB4" s="1">
-        <v>-355.051000</v>
+        <v>-355.05099999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>81488.968942</v>
+        <v>81488.968942000007</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.635825</v>
+        <v>22.635825000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1517.310000</v>
+        <v>1517.31</v>
       </c>
       <c r="BG4" s="1">
-        <v>-597.378000</v>
+        <v>-597.37800000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>81499.955365</v>
+        <v>81499.955365000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.638876</v>
       </c>
       <c r="BK4" s="1">
-        <v>1669.220000</v>
+        <v>1669.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1030.380000</v>
+        <v>-1030.3800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>81511.471472</v>
+        <v>81511.471472000005</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.642075</v>
+        <v>22.642074999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1958.650000</v>
+        <v>1958.65</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1778.030000</v>
+        <v>-1778.03</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>81521.894371</v>
+        <v>81521.894371000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.644971</v>
+        <v>22.644971000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2338.290000</v>
+        <v>2338.29</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2636.550000</v>
+        <v>-2636.55</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>81533.054852</v>
+        <v>81533.054852000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.648071</v>
+        <v>22.648071000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2809.870000</v>
+        <v>2809.87</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3576.300000</v>
+        <v>-3576.3</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>81544.866580</v>
+        <v>81544.866580000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.651352</v>
+        <v>22.651351999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4181.260000</v>
+        <v>4181.26</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5839.450000</v>
+        <v>-5839.45</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>81373.085640</v>
+        <v>81373.085640000005</v>
       </c>
       <c r="B5" s="1">
-        <v>22.603635</v>
+        <v>22.603635000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1234.980000</v>
+        <v>1234.98</v>
       </c>
       <c r="D5" s="1">
-        <v>-301.272000</v>
+        <v>-301.27199999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81383.486249</v>
+        <v>81383.486248999994</v>
       </c>
       <c r="G5" s="1">
         <v>22.606524</v>
       </c>
       <c r="H5" s="1">
-        <v>1260.020000</v>
+        <v>1260.02</v>
       </c>
       <c r="I5" s="1">
-        <v>-260.859000</v>
+        <v>-260.85899999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>81394.296059</v>
@@ -1282,13 +1698,13 @@
         <v>22.609527</v>
       </c>
       <c r="M5" s="1">
-        <v>1296.190000</v>
+        <v>1296.19</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.919000</v>
+        <v>-199.91900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>81404.500751</v>
@@ -1297,1448 +1713,1448 @@
         <v>22.612361</v>
       </c>
       <c r="R5" s="1">
-        <v>1308.140000</v>
+        <v>1308.1400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-181.754000</v>
+        <v>-181.75399999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>81415.048703</v>
+        <v>81415.048702999993</v>
       </c>
       <c r="V5" s="1">
-        <v>22.615291</v>
+        <v>22.615290999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1321.190000</v>
+        <v>1321.19</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.018000</v>
+        <v>-168.018</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>81425.273513</v>
+        <v>81425.273512999993</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.618132</v>
+        <v>22.618131999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1338.230000</v>
+        <v>1338.23</v>
       </c>
       <c r="AC5" s="1">
-        <v>-165.176000</v>
+        <v>-165.17599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>81435.542868</v>
+        <v>81435.542868000004</v>
       </c>
       <c r="AF5" s="1">
         <v>22.620984</v>
       </c>
       <c r="AG5" s="1">
-        <v>1350.640000</v>
+        <v>1350.64</v>
       </c>
       <c r="AH5" s="1">
-        <v>-174.233000</v>
+        <v>-174.233</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81445.630503</v>
+        <v>81445.630502999993</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.623786</v>
+        <v>22.623785999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1370.480000</v>
+        <v>1370.48</v>
       </c>
       <c r="AM5" s="1">
-        <v>-203.012000</v>
+        <v>-203.012</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>81456.248362</v>
+        <v>81456.248361999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.626736</v>
+        <v>22.626736000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1391.240000</v>
+        <v>1391.24</v>
       </c>
       <c r="AR5" s="1">
-        <v>-245.587000</v>
+        <v>-245.58699999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>81466.880635</v>
+        <v>81466.880634999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.629689</v>
+        <v>22.629688999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1414.900000</v>
+        <v>1414.9</v>
       </c>
       <c r="AW5" s="1">
-        <v>-304.153000</v>
+        <v>-304.15300000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>81478.395725</v>
+        <v>81478.395724999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.632888</v>
+        <v>22.632888000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB5" s="1">
-        <v>-355.022000</v>
+        <v>-355.02199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>81489.689133</v>
+        <v>81489.689133000007</v>
       </c>
       <c r="BE5" s="1">
         <v>22.636025</v>
       </c>
       <c r="BF5" s="1">
-        <v>1517.260000</v>
+        <v>1517.26</v>
       </c>
       <c r="BG5" s="1">
-        <v>-597.346000</v>
+        <v>-597.346</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>81500.708782</v>
+        <v>81500.708782000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.639086</v>
+        <v>22.639085999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1669.250000</v>
+        <v>1669.25</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1030.420000</v>
+        <v>-1030.42</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>81511.855357</v>
+        <v>81511.855356999993</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.642182</v>
+        <v>22.642181999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1958.540000</v>
+        <v>1958.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1777.940000</v>
+        <v>-1777.94</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>81522.304066</v>
+        <v>81522.304065999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.645084</v>
+        <v>22.645084000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2338.430000</v>
+        <v>2338.4299999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2636.970000</v>
+        <v>-2636.97</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>81533.501747</v>
+        <v>81533.501747000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.648195</v>
+        <v>22.648195000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2809.120000</v>
+        <v>2809.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3577.040000</v>
+        <v>-3577.04</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>81545.696222</v>
+        <v>81545.696221999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.651582</v>
+        <v>22.651582000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4197.780000</v>
+        <v>4197.78</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5839.400000</v>
+        <v>-5839.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>81373.428263</v>
+        <v>81373.428262999994</v>
       </c>
       <c r="B6" s="1">
-        <v>22.603730</v>
+        <v>22.603729999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1234.990000</v>
+        <v>1234.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-301.618000</v>
+        <v>-301.61799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>81383.832953</v>
+        <v>81383.832953000005</v>
       </c>
       <c r="G6" s="1">
-        <v>22.606620</v>
+        <v>22.606619999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.510000</v>
+        <v>-260.51</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>81394.644760</v>
+        <v>81394.644759999996</v>
       </c>
       <c r="L6" s="1">
         <v>22.609624</v>
       </c>
       <c r="M6" s="1">
-        <v>1296.270000</v>
+        <v>1296.27</v>
       </c>
       <c r="N6" s="1">
-        <v>-199.789000</v>
+        <v>-199.78899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>81404.926318</v>
+        <v>81404.926317999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.612480</v>
+        <v>22.612480000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-181.791000</v>
+        <v>-181.791</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>81415.476751</v>
+        <v>81415.476750999995</v>
       </c>
       <c r="V6" s="1">
-        <v>22.615410</v>
+        <v>22.615410000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1321.360000</v>
+        <v>1321.36</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.093000</v>
+        <v>-168.09299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>81425.554466</v>
+        <v>81425.554466000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.618210</v>
+        <v>22.618210000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-165.130000</v>
+        <v>-165.13</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>81435.882627</v>
+        <v>81435.882626999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.621079</v>
+        <v>22.621079000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1350.650000</v>
+        <v>1350.65</v>
       </c>
       <c r="AH6" s="1">
-        <v>-174.221000</v>
+        <v>-174.221</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>81445.981670</v>
+        <v>81445.981669999994</v>
       </c>
       <c r="AK6" s="1">
         <v>22.623884</v>
       </c>
       <c r="AL6" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="AM6" s="1">
-        <v>-202.988000</v>
+        <v>-202.988</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>81456.609458</v>
+        <v>81456.609458000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.626836</v>
+        <v>22.626836000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR6" s="1">
-        <v>-245.656000</v>
+        <v>-245.65600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>81467.243674</v>
+        <v>81467.243673999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.629790</v>
+        <v>22.62979</v>
       </c>
       <c r="AV6" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW6" s="1">
-        <v>-304.137000</v>
+        <v>-304.137</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>81479.116941</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.633088</v>
+        <v>22.633088000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB6" s="1">
-        <v>-355.029000</v>
+        <v>-355.029</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>81490.048732</v>
+        <v>81490.048731999996</v>
       </c>
       <c r="BE6" s="1">
         <v>22.636125</v>
       </c>
       <c r="BF6" s="1">
-        <v>1517.260000</v>
+        <v>1517.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-597.391000</v>
+        <v>-597.39099999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>81501.083415</v>
+        <v>81501.083415000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.639190</v>
+        <v>22.639189999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1669.270000</v>
+        <v>1669.27</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1030.270000</v>
+        <v>-1030.27</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>81512.273472</v>
+        <v>81512.273472000001</v>
       </c>
       <c r="BO6" s="1">
         <v>22.642298</v>
       </c>
       <c r="BP6" s="1">
-        <v>1958.580000</v>
+        <v>1958.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1778.040000</v>
+        <v>-1778.04</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>81522.723681</v>
+        <v>81522.723681000003</v>
       </c>
       <c r="BT6" s="1">
         <v>22.645201</v>
       </c>
       <c r="BU6" s="1">
-        <v>2338.410000</v>
+        <v>2338.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2637.080000</v>
+        <v>-2637.08</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>81534.245778</v>
+        <v>81534.245777999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.648402</v>
+        <v>22.648402000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2809.320000</v>
+        <v>2809.32</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3577.470000</v>
+        <v>-3577.47</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>81545.899250</v>
+        <v>81545.899250000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.651639</v>
+        <v>22.651638999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4193.110000</v>
+        <v>4193.1099999999997</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5823.270000</v>
+        <v>-5823.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>81373.777062</v>
+        <v>81373.777061999994</v>
       </c>
       <c r="B7" s="1">
-        <v>22.603827</v>
+        <v>22.603826999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1234.640000</v>
+        <v>1234.6400000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.567000</v>
+        <v>-301.56700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>81384.175192</v>
+        <v>81384.175191999995</v>
       </c>
       <c r="G7" s="1">
-        <v>22.606715</v>
+        <v>22.606715000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.748000</v>
+        <v>-260.74799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>81395.067339</v>
+        <v>81395.067339000001</v>
       </c>
       <c r="L7" s="1">
         <v>22.609741</v>
       </c>
       <c r="M7" s="1">
-        <v>1296.060000</v>
+        <v>1296.06</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.714000</v>
+        <v>-199.714</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>81405.205070</v>
+        <v>81405.205069999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.612557</v>
+        <v>22.612556999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1308.120000</v>
+        <v>1308.1199999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-181.790000</v>
+        <v>-181.79</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>81415.741088</v>
+        <v>81415.741087999995</v>
       </c>
       <c r="V7" s="1">
-        <v>22.615484</v>
+        <v>22.615483999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1321.260000</v>
+        <v>1321.26</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.838000</v>
+        <v>-167.83799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>81425.906099</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.618307</v>
+        <v>22.618307000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1338.230000</v>
+        <v>1338.23</v>
       </c>
       <c r="AC7" s="1">
-        <v>-165.012000</v>
+        <v>-165.012</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>81436.195109</v>
+        <v>81436.195108999993</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.621165</v>
+        <v>22.621165000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1350.670000</v>
+        <v>1350.67</v>
       </c>
       <c r="AH7" s="1">
-        <v>-174.194000</v>
+        <v>-174.19399999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>81446.329899</v>
+        <v>81446.329899000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.623981</v>
+        <v>22.623981000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="AM7" s="1">
-        <v>-203.020000</v>
+        <v>-203.02</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>81457.327688</v>
+        <v>81457.327688000005</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.627035</v>
+        <v>22.627034999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="AR7" s="1">
-        <v>-245.628000</v>
+        <v>-245.62799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>81467.973298</v>
+        <v>81467.973297999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.629993</v>
+        <v>22.629992999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="AW7" s="1">
-        <v>-304.130000</v>
+        <v>-304.13</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>81479.503786</v>
+        <v>81479.503786000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.633195</v>
+        <v>22.633195000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB7" s="1">
-        <v>-355.014000</v>
+        <v>-355.01400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>81490.411308</v>
+        <v>81490.411307999995</v>
       </c>
       <c r="BE7" s="1">
         <v>22.636225</v>
       </c>
       <c r="BF7" s="1">
-        <v>1517.260000</v>
+        <v>1517.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-597.398000</v>
+        <v>-597.39800000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>81501.458739</v>
+        <v>81501.458738999994</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.639294</v>
       </c>
       <c r="BK7" s="1">
-        <v>1669.200000</v>
+        <v>1669.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1030.380000</v>
+        <v>-1030.3800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>81512.984238</v>
+        <v>81512.984238000005</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.642496</v>
+        <v>22.642496000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1958.500000</v>
+        <v>1958.5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1777.860000</v>
+        <v>-1777.86</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>81523.170578</v>
+        <v>81523.170578000005</v>
       </c>
       <c r="BT7" s="1">
         <v>22.645325</v>
       </c>
       <c r="BU7" s="1">
-        <v>2338.660000</v>
+        <v>2338.66</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2637.060000</v>
+        <v>-2637.06</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>81534.373713</v>
+        <v>81534.373712999994</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.648437</v>
+        <v>22.648437000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2809.010000</v>
+        <v>2809.01</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3577.410000</v>
+        <v>-3577.41</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>81546.420050</v>
+        <v>81546.420050000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.651783</v>
+        <v>22.651783000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4198.500000</v>
+        <v>4198.5</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5825.620000</v>
+        <v>-5825.62</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>81374.210576</v>
+        <v>81374.210575999998</v>
       </c>
       <c r="B8" s="1">
-        <v>22.603947</v>
+        <v>22.603947000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.678000</v>
+        <v>-301.678</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>81384.864137</v>
+        <v>81384.864136999997</v>
       </c>
       <c r="G8" s="1">
         <v>22.606907</v>
       </c>
       <c r="H8" s="1">
-        <v>1260.940000</v>
+        <v>1260.94</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.685000</v>
+        <v>-260.685</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>81395.346585</v>
+        <v>81395.346585000007</v>
       </c>
       <c r="L8" s="1">
-        <v>22.609818</v>
+        <v>22.609818000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1296.110000</v>
+        <v>1296.1099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-199.383000</v>
+        <v>-199.38300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>81405.552268</v>
+        <v>81405.552267999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.612653</v>
+        <v>22.612653000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-181.733000</v>
+        <v>-181.733</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>81416.084318</v>
+        <v>81416.084317999994</v>
       </c>
       <c r="V8" s="1">
         <v>22.615579</v>
       </c>
       <c r="W8" s="1">
-        <v>1321.280000</v>
+        <v>1321.28</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.116000</v>
+        <v>-168.11600000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>81426.252340</v>
+        <v>81426.252340000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.618403</v>
+        <v>22.618403000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1338.110000</v>
+        <v>1338.11</v>
       </c>
       <c r="AC8" s="1">
-        <v>-165.212000</v>
+        <v>-165.21199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>81436.866229</v>
+        <v>81436.866229000007</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.621352</v>
+        <v>22.621352000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH8" s="1">
-        <v>-174.228000</v>
+        <v>-174.22800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>81447.023269</v>
+        <v>81447.023268999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.624173</v>
+        <v>22.624172999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="AM8" s="1">
-        <v>-203.011000</v>
+        <v>-203.011</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>81457.689266</v>
+        <v>81457.689266000001</v>
       </c>
       <c r="AP8" s="1">
         <v>22.627136</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="AR8" s="1">
-        <v>-245.601000</v>
+        <v>-245.601</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>81468.361161</v>
+        <v>81468.361160999993</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.630100</v>
+        <v>22.630099999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1414.920000</v>
+        <v>1414.92</v>
       </c>
       <c r="AW8" s="1">
-        <v>-304.166000</v>
+        <v>-304.166</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>81479.861936</v>
+        <v>81479.861936000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.633295</v>
       </c>
       <c r="BA8" s="1">
-        <v>1433.700000</v>
+        <v>1433.7</v>
       </c>
       <c r="BB8" s="1">
-        <v>-355.032000</v>
+        <v>-355.03199999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>81491.085868</v>
+        <v>81491.085867999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.636413</v>
+        <v>22.636413000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1517.270000</v>
+        <v>1517.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-597.355000</v>
+        <v>-597.35500000000002</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>81502.147180</v>
+        <v>81502.14718</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.639485</v>
+        <v>22.639485000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1669.190000</v>
+        <v>1669.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1030.340000</v>
+        <v>-1030.3399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>81513.094846</v>
+        <v>81513.094846000007</v>
       </c>
       <c r="BO8" s="1">
         <v>22.642526</v>
       </c>
       <c r="BP8" s="1">
-        <v>1958.290000</v>
+        <v>1958.29</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1778.000000</v>
+        <v>-1778</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>81523.554976</v>
+        <v>81523.554975999999</v>
       </c>
       <c r="BT8" s="1">
         <v>22.645432</v>
       </c>
       <c r="BU8" s="1">
-        <v>2338.740000</v>
+        <v>2338.7399999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2637.200000</v>
+        <v>-2637.2</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>81534.799286</v>
+        <v>81534.799285999994</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.648555</v>
+        <v>22.648555000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2809.280000</v>
+        <v>2809.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3576.780000</v>
+        <v>-3576.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>81546.972593</v>
+        <v>81546.972592999999</v>
       </c>
       <c r="CD8" s="1">
         <v>22.651937</v>
       </c>
       <c r="CE8" s="1">
-        <v>4198.120000</v>
+        <v>4198.12</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5838.040000</v>
+        <v>-5838.04</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>81374.476439</v>
+        <v>81374.476439000005</v>
       </c>
       <c r="B9" s="1">
-        <v>22.604021</v>
+        <v>22.604020999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1234.740000</v>
+        <v>1234.74</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.592000</v>
+        <v>-301.59199999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>81385.210633</v>
+        <v>81385.210632999995</v>
       </c>
       <c r="G9" s="1">
-        <v>22.607003</v>
+        <v>22.607002999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="I9" s="1">
-        <v>-261.196000</v>
+        <v>-261.19600000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>81395.693785</v>
+        <v>81395.693784999996</v>
       </c>
       <c r="L9" s="1">
-        <v>22.609915</v>
+        <v>22.609915000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1296.280000</v>
+        <v>1296.28</v>
       </c>
       <c r="N9" s="1">
-        <v>-199.967000</v>
+        <v>-199.96700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>81405.899468</v>
+        <v>81405.899468000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.612750</v>
+        <v>22.612749999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1308.220000</v>
+        <v>1308.22</v>
       </c>
       <c r="S9" s="1">
-        <v>-181.825000</v>
+        <v>-181.82499999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>81416.429038</v>
+        <v>81416.429038000002</v>
       </c>
       <c r="V9" s="1">
         <v>22.615675</v>
       </c>
       <c r="W9" s="1">
-        <v>1321.260000</v>
+        <v>1321.26</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.788000</v>
+        <v>-167.78800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>81426.947199</v>
+        <v>81426.947199000002</v>
       </c>
       <c r="AA9" s="1">
         <v>22.618596</v>
       </c>
       <c r="AB9" s="1">
-        <v>1338.130000</v>
+        <v>1338.13</v>
       </c>
       <c r="AC9" s="1">
-        <v>-165.126000</v>
+        <v>-165.126</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>81437.214882</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.621449</v>
+        <v>22.621448999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1350.660000</v>
+        <v>1350.66</v>
       </c>
       <c r="AH9" s="1">
-        <v>-174.191000</v>
+        <v>-174.191</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>81447.374436</v>
+        <v>81447.374435999998</v>
       </c>
       <c r="AK9" s="1">
         <v>22.624271</v>
       </c>
       <c r="AL9" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="AM9" s="1">
-        <v>-203.005000</v>
+        <v>-203.005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>81458.047849</v>
+        <v>81458.047848999995</v>
       </c>
       <c r="AP9" s="1">
         <v>22.627236</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1391.220000</v>
+        <v>1391.22</v>
       </c>
       <c r="AR9" s="1">
-        <v>-245.623000</v>
+        <v>-245.62299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>81468.725720</v>
+        <v>81468.725720000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.630202</v>
+        <v>22.630202000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="AW9" s="1">
-        <v>-304.135000</v>
+        <v>-304.13499999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>81480.536457</v>
+        <v>81480.536456999995</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.633482</v>
+        <v>22.633482000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1433.670000</v>
+        <v>1433.67</v>
       </c>
       <c r="BB9" s="1">
-        <v>-355.015000</v>
+        <v>-355.01499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>81491.521850</v>
+        <v>81491.521850000005</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.636534</v>
+        <v>22.636534000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1517.260000</v>
+        <v>1517.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-597.355000</v>
+        <v>-597.35500000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>81502.581644</v>
+        <v>81502.581644000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.639606</v>
+        <v>22.639606000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1669.160000</v>
+        <v>1669.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1030.380000</v>
+        <v>-1030.3800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>81513.517470</v>
+        <v>81513.517470000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.642644</v>
+        <v>22.642644000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1958.270000</v>
+        <v>1958.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1777.990000</v>
+        <v>-1777.99</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>81523.991457</v>
+        <v>81523.991456999996</v>
       </c>
       <c r="BT9" s="1">
         <v>22.645553</v>
       </c>
       <c r="BU9" s="1">
-        <v>2339.040000</v>
+        <v>2339.04</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2637.110000</v>
+        <v>-2637.11</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>81535.220385</v>
+        <v>81535.220384999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.648672</v>
+        <v>22.648672000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2809.260000</v>
+        <v>2809.26</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3577.070000</v>
+        <v>-3577.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>81547.503808</v>
+        <v>81547.503807999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.652084</v>
+        <v>22.652083999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4191.600000</v>
+        <v>4191.6000000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5822.470000</v>
+        <v>-5822.47</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>81374.819157</v>
+        <v>81374.819157000005</v>
       </c>
       <c r="B10" s="1">
-        <v>22.604116</v>
+        <v>22.604116000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1235.340000</v>
+        <v>1235.3399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-301.537000</v>
+        <v>-301.53699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>81385.554070</v>
+        <v>81385.554069999998</v>
       </c>
       <c r="G10" s="1">
-        <v>22.607098</v>
+        <v>22.607098000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.959000</v>
+        <v>-260.959</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>81396.038515</v>
+        <v>81396.038514999993</v>
       </c>
       <c r="L10" s="1">
         <v>22.610011</v>
       </c>
       <c r="M10" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.633000</v>
+        <v>-199.63300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>81406.597835</v>
+        <v>81406.597834999993</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.612944</v>
+        <v>22.612943999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1308.170000</v>
+        <v>1308.17</v>
       </c>
       <c r="S10" s="1">
-        <v>-181.787000</v>
+        <v>-181.78700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>81417.115005</v>
       </c>
       <c r="V10" s="1">
-        <v>22.615865</v>
+        <v>22.615864999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1321.390000</v>
+        <v>1321.39</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.899000</v>
+        <v>-167.899</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>81427.297872</v>
+        <v>81427.297871999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.618694</v>
+        <v>22.618694000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="AC10" s="1">
-        <v>-165.126000</v>
+        <v>-165.126</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>81437.556129</v>
+        <v>81437.556129000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.621543</v>
+        <v>22.621542999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1350.640000</v>
+        <v>1350.64</v>
       </c>
       <c r="AH10" s="1">
-        <v>-174.202000</v>
+        <v>-174.202</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>81447.724149</v>
+        <v>81447.724149000001</v>
       </c>
       <c r="AK10" s="1">
         <v>22.624368</v>
       </c>
       <c r="AL10" s="1">
-        <v>1370.420000</v>
+        <v>1370.42</v>
       </c>
       <c r="AM10" s="1">
-        <v>-202.979000</v>
+        <v>-202.97900000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>81458.719926</v>
+        <v>81458.719926000005</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.627422</v>
+        <v>22.627421999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1391.260000</v>
+        <v>1391.26</v>
       </c>
       <c r="AR10" s="1">
-        <v>-245.603000</v>
+        <v>-245.60300000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>81469.415160</v>
+        <v>81469.415160000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.630393</v>
+        <v>22.630393000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1414.940000</v>
+        <v>1414.94</v>
       </c>
       <c r="AW10" s="1">
-        <v>-304.161000</v>
+        <v>-304.161</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>81480.971946</v>
+        <v>81480.971946000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.633603</v>
+        <v>22.633603000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1433.690000</v>
+        <v>1433.69</v>
       </c>
       <c r="BB10" s="1">
-        <v>-355.001000</v>
+        <v>-355.00099999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>81491.882939</v>
+        <v>81491.882939000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.636634</v>
+        <v>22.636634000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1517.260000</v>
+        <v>1517.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-597.411000</v>
+        <v>-597.41099999999994</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>81502.958603</v>
+        <v>81502.958603000006</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.639711</v>
+        <v>22.639710999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1669.240000</v>
+        <v>1669.24</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1030.330000</v>
+        <v>-1030.33</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>81513.913777</v>
+        <v>81513.913776999994</v>
       </c>
       <c r="BO10" s="1">
         <v>22.642754</v>
       </c>
       <c r="BP10" s="1">
-        <v>1958.090000</v>
+        <v>1958.09</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1777.820000</v>
+        <v>-1777.82</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>81524.427935</v>
@@ -2747,392 +3163,392 @@
         <v>22.645674</v>
       </c>
       <c r="BU10" s="1">
-        <v>2339.040000</v>
+        <v>2339.04</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2637.250000</v>
+        <v>-2637.25</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>81535.663326</v>
+        <v>81535.663325999994</v>
       </c>
       <c r="BY10" s="1">
         <v>22.648795</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2808.550000</v>
+        <v>2808.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3576.720000</v>
+        <v>-3576.72</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>81548.018159</v>
+        <v>81548.018158999999</v>
       </c>
       <c r="CD10" s="1">
         <v>22.652227</v>
       </c>
       <c r="CE10" s="1">
-        <v>4177.610000</v>
+        <v>4177.6099999999997</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5833.040000</v>
+        <v>-5833.04</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>81375.164384</v>
+        <v>81375.164384000003</v>
       </c>
       <c r="B11" s="1">
         <v>22.604212</v>
       </c>
       <c r="C11" s="1">
-        <v>1235.100000</v>
+        <v>1235.0999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-301.813000</v>
+        <v>-301.81299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>81386.242022</v>
+        <v>81386.242022000006</v>
       </c>
       <c r="G11" s="1">
-        <v>22.607289</v>
+        <v>22.607289000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.337000</v>
+        <v>-261.33699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>81396.728441</v>
+        <v>81396.728440999999</v>
       </c>
       <c r="L11" s="1">
-        <v>22.610202</v>
+        <v>22.610202000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1296.180000</v>
+        <v>1296.18</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.698000</v>
+        <v>-199.69800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>81406.945530</v>
+        <v>81406.945529999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.613040</v>
+        <v>22.613040000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="S11" s="1">
-        <v>-181.812000</v>
+        <v>-181.81200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>81417.460718</v>
+        <v>81417.460718000002</v>
       </c>
       <c r="V11" s="1">
-        <v>22.615961</v>
+        <v>22.615960999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1321.180000</v>
+        <v>1321.18</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.013000</v>
+        <v>-168.01300000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>81427.646592</v>
+        <v>81427.646592000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.618791</v>
+        <v>22.618791000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1338.260000</v>
+        <v>1338.26</v>
       </c>
       <c r="AC11" s="1">
-        <v>-165.243000</v>
+        <v>-165.24299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>81438.216332</v>
+        <v>81438.216331999996</v>
       </c>
       <c r="AF11" s="1">
         <v>22.621727</v>
       </c>
       <c r="AG11" s="1">
-        <v>1350.640000</v>
+        <v>1350.64</v>
       </c>
       <c r="AH11" s="1">
-        <v>-174.196000</v>
+        <v>-174.196</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>81448.377843</v>
+        <v>81448.377842999995</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.624549</v>
+        <v>22.624548999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM11" s="1">
-        <v>-202.992000</v>
+        <v>-202.99199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>81459.162389</v>
+        <v>81459.162389000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.627545</v>
+        <v>22.627545000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1391.200000</v>
+        <v>1391.2</v>
       </c>
       <c r="AR11" s="1">
-        <v>-245.616000</v>
+        <v>-245.61600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>81469.856599</v>
+        <v>81469.856599000006</v>
       </c>
       <c r="AU11" s="1">
         <v>22.630516</v>
       </c>
       <c r="AV11" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW11" s="1">
-        <v>-304.147000</v>
+        <v>-304.14699999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>81481.329560</v>
+        <v>81481.329559999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.633703</v>
+        <v>22.633703000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1433.690000</v>
+        <v>1433.69</v>
       </c>
       <c r="BB11" s="1">
-        <v>-354.991000</v>
+        <v>-354.99099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>81492.241547</v>
+        <v>81492.241546999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.636734</v>
+        <v>22.636734000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG11" s="1">
-        <v>-597.367000</v>
+        <v>-597.36699999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>81503.334570</v>
+        <v>81503.334570000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.639815</v>
+        <v>22.639814999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1669.260000</v>
+        <v>1669.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1030.330000</v>
+        <v>-1030.33</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>81514.341323</v>
+        <v>81514.341323000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.642873</v>
+        <v>22.642873000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1958.110000</v>
+        <v>1958.11</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1777.550000</v>
+        <v>-1777.55</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>81524.831336</v>
+        <v>81524.831336000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.645786</v>
+        <v>22.645786000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2339.350000</v>
+        <v>2339.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2637.370000</v>
+        <v>-2637.37</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>81536.084416</v>
+        <v>81536.084415999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.648912</v>
+        <v>22.648911999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2808.520000</v>
+        <v>2808.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3577.250000</v>
+        <v>-3577.25</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>81548.537967</v>
+        <v>81548.537966999997</v>
       </c>
       <c r="CD11" s="1">
         <v>22.652372</v>
       </c>
       <c r="CE11" s="1">
-        <v>4189.660000</v>
+        <v>4189.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5844.170000</v>
+        <v>-5844.17</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>81375.847364</v>
+        <v>81375.847364000001</v>
       </c>
       <c r="B12" s="1">
         <v>22.604402</v>
       </c>
       <c r="C12" s="1">
-        <v>1235.060000</v>
+        <v>1235.06</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.483000</v>
+        <v>-301.483</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81386.589717</v>
+        <v>81386.589716999995</v>
       </c>
       <c r="G12" s="1">
-        <v>22.607386</v>
+        <v>22.607386000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1260.120000</v>
+        <v>1260.1199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.437000</v>
+        <v>-260.43700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>81397.079112</v>
+        <v>81397.079112000007</v>
       </c>
       <c r="L12" s="1">
-        <v>22.610300</v>
+        <v>22.610299999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1296.150000</v>
+        <v>1296.1500000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.013000</v>
+        <v>-200.01300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>81407.297225</v>
+        <v>81407.297225000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.613138</v>
+        <v>22.613137999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="S12" s="1">
-        <v>-181.745000</v>
+        <v>-181.745</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>81417.801004</v>
+        <v>81417.801003999994</v>
       </c>
       <c r="V12" s="1">
         <v>22.616056</v>
       </c>
       <c r="W12" s="1">
-        <v>1321.160000</v>
+        <v>1321.16</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.925000</v>
+        <v>-167.92500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>81428.312190</v>
+        <v>81428.312189999997</v>
       </c>
       <c r="AA12" s="1">
         <v>22.618976</v>
       </c>
       <c r="AB12" s="1">
-        <v>1338.140000</v>
+        <v>1338.14</v>
       </c>
       <c r="AC12" s="1">
-        <v>-165.191000</v>
+        <v>-165.191</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>81438.590784</v>
@@ -3141,210 +3557,210 @@
         <v>22.621831</v>
       </c>
       <c r="AG12" s="1">
-        <v>1350.600000</v>
+        <v>1350.6</v>
       </c>
       <c r="AH12" s="1">
-        <v>-174.224000</v>
+        <v>-174.22399999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>81448.770679</v>
+        <v>81448.770678999994</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.624659</v>
+        <v>22.624659000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="AM12" s="1">
-        <v>-203.019000</v>
+        <v>-203.01900000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>81459.521494</v>
+        <v>81459.521494000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.627645</v>
+        <v>22.627645000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR12" s="1">
-        <v>-245.588000</v>
+        <v>-245.58799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>81470.228600</v>
+        <v>81470.228600000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.630619</v>
+        <v>22.630618999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1414.920000</v>
+        <v>1414.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-304.140000</v>
+        <v>-304.14</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>81481.691640</v>
+        <v>81481.691640000005</v>
       </c>
       <c r="AZ12" s="1">
         <v>22.633803</v>
       </c>
       <c r="BA12" s="1">
-        <v>1433.690000</v>
+        <v>1433.69</v>
       </c>
       <c r="BB12" s="1">
-        <v>-354.976000</v>
+        <v>-354.976</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>81492.673562</v>
+        <v>81492.673561999996</v>
       </c>
       <c r="BE12" s="1">
         <v>22.636854</v>
       </c>
       <c r="BF12" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG12" s="1">
-        <v>-597.359000</v>
+        <v>-597.35900000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>81503.775515</v>
+        <v>81503.775515000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.639938</v>
+        <v>22.639938000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1669.190000</v>
+        <v>1669.19</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1030.280000</v>
+        <v>-1030.28</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>81514.736107</v>
+        <v>81514.736107000004</v>
       </c>
       <c r="BO12" s="1">
         <v>22.642982</v>
       </c>
       <c r="BP12" s="1">
-        <v>1958.030000</v>
+        <v>1958.03</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1777.660000</v>
+        <v>-1777.66</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>81525.262716</v>
+        <v>81525.262715999997</v>
       </c>
       <c r="BT12" s="1">
         <v>22.645906</v>
       </c>
       <c r="BU12" s="1">
-        <v>2339.260000</v>
+        <v>2339.2600000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2637.570000</v>
+        <v>-2637.57</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>81536.509518</v>
+        <v>81536.509518000006</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.649030</v>
+        <v>22.64903</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2808.540000</v>
+        <v>2808.54</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3577.290000</v>
+        <v>-3577.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>81549.055326</v>
+        <v>81549.055326000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.652515</v>
+        <v>22.652515000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4184.130000</v>
+        <v>4184.13</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5839.810000</v>
+        <v>-5839.81</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>81376.188611</v>
+        <v>81376.188611000005</v>
       </c>
       <c r="B13" s="1">
-        <v>22.604497</v>
+        <v>22.604496999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1234.990000</v>
+        <v>1234.99</v>
       </c>
       <c r="D13" s="1">
-        <v>-301.476000</v>
+        <v>-301.476</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>81386.937909</v>
       </c>
       <c r="G13" s="1">
-        <v>22.607483</v>
+        <v>22.607482999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.308000</v>
+        <v>-260.30799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>81397.425815</v>
+        <v>81397.425814999995</v>
       </c>
       <c r="L13" s="1">
-        <v>22.610396</v>
+        <v>22.610396000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.864000</v>
+        <v>-199.864</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>81407.960842</v>
@@ -3353,996 +3769,996 @@
         <v>22.613322</v>
       </c>
       <c r="R13" s="1">
-        <v>1308.170000</v>
+        <v>1308.17</v>
       </c>
       <c r="S13" s="1">
-        <v>-181.711000</v>
+        <v>-181.71100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>81418.460192</v>
+        <v>81418.460191999999</v>
       </c>
       <c r="V13" s="1">
         <v>22.616239</v>
       </c>
       <c r="W13" s="1">
-        <v>1321.250000</v>
+        <v>1321.25</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.882000</v>
+        <v>-167.88200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>81428.692125</v>
+        <v>81428.692125000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.619081</v>
+        <v>22.619081000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="AC13" s="1">
-        <v>-165.109000</v>
+        <v>-165.10900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>81438.933024</v>
+        <v>81438.933023999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.621926</v>
+        <v>22.621925999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1350.620000</v>
+        <v>1350.62</v>
       </c>
       <c r="AH13" s="1">
-        <v>-174.292000</v>
+        <v>-174.292</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>81449.116386</v>
+        <v>81449.116385999994</v>
       </c>
       <c r="AK13" s="1">
         <v>22.624755</v>
       </c>
       <c r="AL13" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM13" s="1">
-        <v>-203.025000</v>
+        <v>-203.02500000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>81459.882581</v>
+        <v>81459.882580999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.627745</v>
+        <v>22.627745000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1391.260000</v>
+        <v>1391.26</v>
       </c>
       <c r="AR13" s="1">
-        <v>-245.599000</v>
+        <v>-245.59899999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>81470.585719</v>
+        <v>81470.585718999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.630718</v>
+        <v>22.630718000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW13" s="1">
-        <v>-304.128000</v>
+        <v>-304.12799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>81482.105831</v>
+        <v>81482.105830999993</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.633918</v>
+        <v>22.633918000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB13" s="1">
-        <v>-355.010000</v>
+        <v>-355.01</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>81492.968184</v>
+        <v>81492.968183999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.636936</v>
+        <v>22.636935999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG13" s="1">
-        <v>-597.350000</v>
+        <v>-597.35</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>81504.117259</v>
+        <v>81504.117259000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.640033</v>
+        <v>22.640032999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1669.210000</v>
+        <v>1669.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1030.260000</v>
+        <v>-1030.26</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>81515.156716</v>
+        <v>81515.156715999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.643099</v>
+        <v>22.643098999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1957.970000</v>
+        <v>1957.97</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1777.420000</v>
+        <v>-1777.42</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>81525.691741</v>
+        <v>81525.691741000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.646025</v>
+        <v>22.646025000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>2339.480000</v>
+        <v>2339.48</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2637.950000</v>
+        <v>-2637.95</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>81536.956878</v>
+        <v>81536.956877999997</v>
       </c>
       <c r="BY13" s="1">
         <v>22.649155</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2808.740000</v>
+        <v>2808.74</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3576.580000</v>
+        <v>-3576.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>81549.607342</v>
+        <v>81549.607342000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.652669</v>
+        <v>22.652668999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4177.180000</v>
+        <v>4177.18</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5832.420000</v>
+        <v>-5832.42</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>81376.530850</v>
+        <v>81376.530849999996</v>
       </c>
       <c r="B14" s="1">
         <v>22.604592</v>
       </c>
       <c r="C14" s="1">
-        <v>1234.860000</v>
+        <v>1234.8599999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.569000</v>
+        <v>-301.56900000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>81387.600596</v>
+        <v>81387.600596000004</v>
       </c>
       <c r="G14" s="1">
-        <v>22.607667</v>
+        <v>22.607666999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1259.940000</v>
+        <v>1259.94</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.040000</v>
+        <v>-261.04000000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>81398.085031</v>
+        <v>81398.085030999995</v>
       </c>
       <c r="L14" s="1">
-        <v>22.610579</v>
+        <v>22.610579000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1295.990000</v>
+        <v>1295.99</v>
       </c>
       <c r="N14" s="1">
-        <v>-199.703000</v>
+        <v>-199.703</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>81408.342265</v>
+        <v>81408.342264999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.613428</v>
+        <v>22.613427999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1308.220000</v>
+        <v>1308.22</v>
       </c>
       <c r="S14" s="1">
-        <v>-181.736000</v>
+        <v>-181.73599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>81418.842570</v>
+        <v>81418.842569999993</v>
       </c>
       <c r="V14" s="1">
-        <v>22.616345</v>
+        <v>22.616344999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1321.070000</v>
+        <v>1321.07</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.027000</v>
+        <v>-168.02699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>81429.039351</v>
+        <v>81429.039350999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.619178</v>
+        <v>22.619178000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1338.100000</v>
+        <v>1338.1</v>
       </c>
       <c r="AC14" s="1">
-        <v>-165.213000</v>
+        <v>-165.21299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>81439.277247</v>
+        <v>81439.277247000005</v>
       </c>
       <c r="AF14" s="1">
         <v>22.622021</v>
       </c>
       <c r="AG14" s="1">
-        <v>1350.620000</v>
+        <v>1350.62</v>
       </c>
       <c r="AH14" s="1">
-        <v>-174.271000</v>
+        <v>-174.27099999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>81449.467555</v>
+        <v>81449.467554999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.624852</v>
+        <v>22.624852000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="AM14" s="1">
-        <v>-203.027000</v>
+        <v>-203.02699999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>81460.308148</v>
+        <v>81460.308147999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.627863</v>
+        <v>22.627863000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR14" s="1">
-        <v>-245.610000</v>
+        <v>-245.61</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>81471.315829</v>
+        <v>81471.315828999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.630921</v>
+        <v>22.630921000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1414.870000</v>
+        <v>1414.87</v>
       </c>
       <c r="AW14" s="1">
-        <v>-304.121000</v>
+        <v>-304.12099999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>81482.408360</v>
+        <v>81482.408360000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.634002</v>
+        <v>22.634001999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB14" s="1">
-        <v>-355.008000</v>
+        <v>-355.00799999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>81493.326296</v>
+        <v>81493.326295999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.637035</v>
+        <v>22.637035000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1517.210000</v>
+        <v>1517.21</v>
       </c>
       <c r="BG14" s="1">
-        <v>-597.332000</v>
+        <v>-597.33199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>81504.490784</v>
+        <v>81504.490783999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.640136</v>
+        <v>22.640135999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1669.190000</v>
+        <v>1669.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1030.260000</v>
+        <v>-1030.26</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>81515.553019</v>
+        <v>81515.553018999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.643209</v>
+        <v>22.643208999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1777.480000</v>
+        <v>-1777.48</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>81526.530972</v>
+        <v>81526.530971999993</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.646259</v>
+        <v>22.646259000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2339.570000</v>
+        <v>2339.5700000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2638.240000</v>
+        <v>-2638.24</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>81537.388894</v>
+        <v>81537.388894000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.649275</v>
+        <v>22.649274999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2808.960000</v>
+        <v>2808.96</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3576.910000</v>
+        <v>-3576.91</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>81550.137565</v>
+        <v>81550.137564999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.652816</v>
+        <v>22.652816000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4188.470000</v>
+        <v>4188.47</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5843.230000</v>
+        <v>-5843.23</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>81377.183586</v>
+        <v>81377.183585999999</v>
       </c>
       <c r="B15" s="1">
-        <v>22.604773</v>
+        <v>22.604773000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.553000</v>
+        <v>-301.553</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>81387.973059</v>
+        <v>81387.973058999996</v>
       </c>
       <c r="G15" s="1">
-        <v>22.607770</v>
+        <v>22.607769999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1260.870000</v>
+        <v>1260.8699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.609000</v>
+        <v>-260.60899999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>81398.460967</v>
+        <v>81398.460967000006</v>
       </c>
       <c r="L15" s="1">
-        <v>22.610684</v>
+        <v>22.610683999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1295.960000</v>
+        <v>1295.96</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.825000</v>
+        <v>-199.82499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>81408.688968</v>
+        <v>81408.688968000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.613525</v>
+        <v>22.613524999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1308.250000</v>
+        <v>1308.25</v>
       </c>
       <c r="S15" s="1">
-        <v>-181.796000</v>
+        <v>-181.79599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>81419.175882</v>
+        <v>81419.175881999996</v>
       </c>
       <c r="V15" s="1">
-        <v>22.616438</v>
+        <v>22.616437999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1321.160000</v>
+        <v>1321.16</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.084000</v>
+        <v>-168.084</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>81429.390493</v>
+        <v>81429.390492999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.619275</v>
+        <v>22.619274999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1338.120000</v>
+        <v>1338.12</v>
       </c>
       <c r="AC15" s="1">
-        <v>-165.148000</v>
+        <v>-165.148</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>81439.702815</v>
+        <v>81439.702814999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.622140</v>
+        <v>22.622140000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH15" s="1">
-        <v>-174.294000</v>
+        <v>-174.29400000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>81449.895138</v>
+        <v>81449.895138000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.624971</v>
+        <v>22.624970999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="AM15" s="1">
-        <v>-202.961000</v>
+        <v>-202.96100000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>81460.601747</v>
+        <v>81460.601746999993</v>
       </c>
       <c r="AP15" s="1">
         <v>22.627945</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR15" s="1">
-        <v>-245.599000</v>
+        <v>-245.59899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>81471.703701</v>
+        <v>81471.703701000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.631029</v>
+        <v>22.631029000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1414.900000</v>
+        <v>1414.9</v>
       </c>
       <c r="AW15" s="1">
-        <v>-304.103000</v>
+        <v>-304.10300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>81482.765478</v>
+        <v>81482.765478000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.634102</v>
+        <v>22.634101999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB15" s="1">
-        <v>-355.003000</v>
+        <v>-355.00299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>81493.688408</v>
+        <v>81493.688408000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.637136</v>
+        <v>22.637136000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1517.250000</v>
+        <v>1517.25</v>
       </c>
       <c r="BG15" s="1">
-        <v>-597.329000</v>
+        <v>-597.32899999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>81504.866714</v>
+        <v>81504.866714000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>22.640241</v>
       </c>
       <c r="BK15" s="1">
-        <v>1669.200000</v>
+        <v>1669.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1030.320000</v>
+        <v>-1030.32</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>81515.976630</v>
+        <v>81515.976630000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.643327</v>
+        <v>22.643326999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1958.060000</v>
+        <v>1958.06</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1777.450000</v>
+        <v>-1777.45</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>81526.961004</v>
+        <v>81526.961003999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.646378</v>
+        <v>22.646377999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2339.250000</v>
+        <v>2339.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2638.410000</v>
+        <v>-2638.41</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>81537.809501</v>
+        <v>81537.809500999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.649392</v>
+        <v>22.649391999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2809.110000</v>
+        <v>2809.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3576.990000</v>
+        <v>-3576.99</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>81550.656878</v>
+        <v>81550.656877999994</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.652960</v>
+        <v>22.65296</v>
       </c>
       <c r="CE15" s="1">
-        <v>4195.230000</v>
+        <v>4195.2299999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5823.210000</v>
+        <v>-5823.21</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>81377.552145</v>
+        <v>81377.552144999994</v>
       </c>
       <c r="B16" s="1">
-        <v>22.604876</v>
+        <v>22.604876000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1235.110000</v>
+        <v>1235.1099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-301.401000</v>
+        <v>-301.40100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>81388.316291</v>
+        <v>81388.316290999996</v>
       </c>
       <c r="G16" s="1">
-        <v>22.607866</v>
+        <v>22.607866000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1259.810000</v>
+        <v>1259.81</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.674000</v>
+        <v>-260.67399999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>81398.804198</v>
+        <v>81398.804197999998</v>
       </c>
       <c r="L16" s="1">
-        <v>22.610779</v>
+        <v>22.610779000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.009000</v>
+        <v>-200.00899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>81409.039651</v>
+        <v>81409.039650999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.613622</v>
+        <v>22.613621999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1308.130000</v>
+        <v>1308.1300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-181.840000</v>
+        <v>-181.84</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>81419.741322</v>
+        <v>81419.741322000002</v>
       </c>
       <c r="V16" s="1">
         <v>22.616595</v>
       </c>
       <c r="W16" s="1">
-        <v>1321.140000</v>
+        <v>1321.14</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.943000</v>
+        <v>-167.94300000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>81429.816556</v>
+        <v>81429.816556000005</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.619393</v>
+        <v>22.619392999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1338.340000</v>
+        <v>1338.34</v>
       </c>
       <c r="AC16" s="1">
-        <v>-165.015000</v>
+        <v>-165.01499999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>81439.967710</v>
+        <v>81439.967709999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.622213</v>
+        <v>22.622212999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1350.590000</v>
+        <v>1350.59</v>
       </c>
       <c r="AH16" s="1">
-        <v>-174.245000</v>
+        <v>-174.245</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>81450.175345</v>
+        <v>81450.175344999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.625049</v>
+        <v>22.625049000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="AM16" s="1">
-        <v>-202.970000</v>
+        <v>-202.97</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>81460.965844</v>
+        <v>81460.965844000006</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.628046</v>
+        <v>22.628046000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR16" s="1">
-        <v>-245.614000</v>
+        <v>-245.614</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>81472.066773</v>
+        <v>81472.066772999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.631130</v>
+        <v>22.631129999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1414.870000</v>
+        <v>1414.87</v>
       </c>
       <c r="AW16" s="1">
-        <v>-304.123000</v>
+        <v>-304.12299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>81483.126070</v>
+        <v>81483.126069999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.634202</v>
+        <v>22.634201999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1433.650000</v>
+        <v>1433.65</v>
       </c>
       <c r="BB16" s="1">
-        <v>-354.990000</v>
+        <v>-354.99</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>81494.409558</v>
+        <v>81494.409557999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.637336</v>
+        <v>22.637336000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-597.332000</v>
+        <v>-597.33199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>81505.640473</v>
+        <v>81505.640473000007</v>
       </c>
       <c r="BJ16" s="1">
         <v>22.640456</v>
       </c>
       <c r="BK16" s="1">
-        <v>1669.150000</v>
+        <v>1669.15</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1030.290000</v>
+        <v>-1030.29</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>81516.371418</v>
+        <v>81516.371417999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.643437</v>
+        <v>22.643436999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1957.910000</v>
+        <v>1957.91</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1777.340000</v>
+        <v>-1777.34</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>81527.391531</v>
+        <v>81527.391531000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.646498</v>
+        <v>22.646498000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2339.640000</v>
+        <v>2339.64</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2638.600000</v>
+        <v>-2638.6</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>81538.232092</v>
+        <v>81538.232092000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.649509</v>
+        <v>22.649508999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2809.430000</v>
+        <v>2809.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3576.450000</v>
+        <v>-3576.45</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>81551.508507</v>
+        <v>81551.508507000006</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.653197</v>
+        <v>22.653196999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4195.520000</v>
+        <v>4195.5200000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5840.870000</v>
+        <v>-5840.87</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>81377.897857</v>
+        <v>81377.897857000004</v>
       </c>
       <c r="B17" s="1">
         <v>22.604972</v>
       </c>
       <c r="C17" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="D17" s="1">
-        <v>-301.350000</v>
+        <v>-301.35000000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>81388.661043</v>
@@ -4351,465 +4767,465 @@
         <v>22.607961</v>
       </c>
       <c r="H17" s="1">
-        <v>1260.850000</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.173000</v>
+        <v>-261.173</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>81399.153380</v>
+        <v>81399.153380000003</v>
       </c>
       <c r="L17" s="1">
-        <v>22.610876</v>
+        <v>22.610876000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1296.170000</v>
+        <v>1296.17</v>
       </c>
       <c r="N17" s="1">
-        <v>-199.735000</v>
+        <v>-199.73500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>81409.466199</v>
+        <v>81409.466199000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.613741</v>
+        <v>22.613741000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1308.110000</v>
+        <v>1308.1099999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-181.729000</v>
+        <v>-181.72900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>81419.866313</v>
+        <v>81419.866313000006</v>
       </c>
       <c r="V17" s="1">
-        <v>22.616630</v>
+        <v>22.616630000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1321.310000</v>
+        <v>1321.31</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.089000</v>
+        <v>-168.089</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>81430.097787</v>
+        <v>81430.097787000006</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.619472</v>
+        <v>22.619471999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1338.120000</v>
+        <v>1338.12</v>
       </c>
       <c r="AC17" s="1">
-        <v>-165.222000</v>
+        <v>-165.22200000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>81440.311406</v>
+        <v>81440.311405999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.622309</v>
+        <v>22.622309000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH17" s="1">
-        <v>-174.207000</v>
+        <v>-174.20699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>81450.521290</v>
+        <v>81450.521290000004</v>
       </c>
       <c r="AK17" s="1">
         <v>22.625145</v>
       </c>
       <c r="AL17" s="1">
-        <v>1370.470000</v>
+        <v>1370.47</v>
       </c>
       <c r="AM17" s="1">
-        <v>-202.980000</v>
+        <v>-202.98</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>81461.325410</v>
+        <v>81461.325410000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.628146</v>
+        <v>22.628146000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1391.260000</v>
+        <v>1391.26</v>
       </c>
       <c r="AR17" s="1">
-        <v>-245.608000</v>
+        <v>-245.608</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>81472.796883</v>
+        <v>81472.796883000003</v>
       </c>
       <c r="AU17" s="1">
         <v>22.631332</v>
       </c>
       <c r="AV17" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW17" s="1">
-        <v>-304.130000</v>
+        <v>-304.13</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>81483.840836</v>
+        <v>81483.840836000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.634400</v>
+        <v>22.634399999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1433.670000</v>
+        <v>1433.67</v>
       </c>
       <c r="BB17" s="1">
-        <v>-354.978000</v>
+        <v>-354.97800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>81494.773128</v>
+        <v>81494.773128000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.637437</v>
+        <v>22.637436999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1517.270000</v>
+        <v>1517.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-597.329000</v>
+        <v>-597.32899999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>81506.013463</v>
+        <v>81506.013462999996</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.640559</v>
       </c>
       <c r="BK17" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1030.290000</v>
+        <v>-1030.29</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>81516.790537</v>
+        <v>81516.790536999993</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.643553</v>
+        <v>22.643553000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1957.980000</v>
+        <v>1957.98</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1777.460000</v>
+        <v>-1777.46</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>81528.114444</v>
+        <v>81528.114444000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.646698</v>
+        <v>22.646698000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2338.910000</v>
+        <v>2338.91</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2638.930000</v>
+        <v>-2638.93</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>81538.993452</v>
+        <v>81538.993451999995</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.649720</v>
+        <v>22.649719999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2808.420000</v>
+        <v>2808.42</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3576.580000</v>
+        <v>-3576.58</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>81551.735179</v>
+        <v>81551.735178999996</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.653260</v>
+        <v>22.65326</v>
       </c>
       <c r="CE17" s="1">
-        <v>4195.320000</v>
+        <v>4195.32</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5842.020000</v>
+        <v>-5842.02</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>81378.238111</v>
+        <v>81378.238110999999</v>
       </c>
       <c r="B18" s="1">
-        <v>22.605066</v>
+        <v>22.605066000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1235.180000</v>
+        <v>1235.18</v>
       </c>
       <c r="D18" s="1">
-        <v>-301.677000</v>
+        <v>-301.67700000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>81389.078643</v>
+        <v>81389.078643000001</v>
       </c>
       <c r="G18" s="1">
-        <v>22.608077</v>
+        <v>22.608077000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.377000</v>
+        <v>-261.37700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>81399.583908</v>
+        <v>81399.583908000001</v>
       </c>
       <c r="L18" s="1">
         <v>22.610996</v>
       </c>
       <c r="M18" s="1">
-        <v>1296.330000</v>
+        <v>1296.33</v>
       </c>
       <c r="N18" s="1">
-        <v>-199.595000</v>
+        <v>-199.595</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>81409.747928</v>
+        <v>81409.747927999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.613819</v>
+        <v>22.613818999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-181.638000</v>
+        <v>-181.63800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>81420.209074</v>
+        <v>81420.209073999999</v>
       </c>
       <c r="V18" s="1">
-        <v>22.616725</v>
+        <v>22.616724999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1321.270000</v>
+        <v>1321.27</v>
       </c>
       <c r="X18" s="1">
-        <v>-167.719000</v>
+        <v>-167.71899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>81430.445019</v>
+        <v>81430.445019000006</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.619568</v>
+        <v>22.619568000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="AC18" s="1">
-        <v>-165.202000</v>
+        <v>-165.202</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>81440.654174</v>
+        <v>81440.654173999996</v>
       </c>
       <c r="AF18" s="1">
         <v>22.622404</v>
       </c>
       <c r="AG18" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH18" s="1">
-        <v>-174.222000</v>
+        <v>-174.22200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>81450.872244</v>
+        <v>81450.872243999998</v>
       </c>
       <c r="AK18" s="1">
         <v>22.625242</v>
       </c>
       <c r="AL18" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="AM18" s="1">
-        <v>-203.016000</v>
+        <v>-203.01599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>81462.051057</v>
+        <v>81462.051057000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.628348</v>
+        <v>22.628347999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1391.240000</v>
+        <v>1391.24</v>
       </c>
       <c r="AR18" s="1">
-        <v>-245.593000</v>
+        <v>-245.59299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>81473.186740</v>
+        <v>81473.186740000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.631441</v>
+        <v>22.631440999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW18" s="1">
-        <v>-304.115000</v>
+        <v>-304.11500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>81484.202388</v>
+        <v>81484.202388000005</v>
       </c>
       <c r="AZ18" s="1">
         <v>22.634501</v>
       </c>
       <c r="BA18" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB18" s="1">
-        <v>-354.996000</v>
+        <v>-354.99599999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>81495.131269</v>
+        <v>81495.131269000005</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.637536</v>
+        <v>22.637536000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1517.180000</v>
+        <v>1517.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-597.308000</v>
+        <v>-597.30799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>81506.701942</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.640751</v>
+        <v>22.640751000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1669.090000</v>
+        <v>1669.09</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1030.230000</v>
+        <v>-1030.23</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>81517.506792</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.643752</v>
+        <v>22.643751999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1958.090000</v>
+        <v>1958.09</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1777.440000</v>
+        <v>-1777.44</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>81528.235760</v>
+        <v>81528.235759999996</v>
       </c>
       <c r="BT18" s="1">
         <v>22.646732</v>
       </c>
       <c r="BU18" s="1">
-        <v>2339.320000</v>
+        <v>2339.3200000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2638.950000</v>
+        <v>-2638.95</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>81539.507803</v>
@@ -4818,545 +5234,545 @@
         <v>22.649863</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2809.410000</v>
+        <v>2809.41</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3576.940000</v>
+        <v>-3576.94</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>81552.253498</v>
+        <v>81552.253498000005</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.653404</v>
+        <v>22.653403999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4196.980000</v>
+        <v>4196.9799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5826.180000</v>
+        <v>-5826.18</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>81378.660202</v>
+        <v>81378.660201999999</v>
       </c>
       <c r="B19" s="1">
         <v>22.605183</v>
       </c>
       <c r="C19" s="1">
-        <v>1235.050000</v>
+        <v>1235.05</v>
       </c>
       <c r="D19" s="1">
-        <v>-301.539000</v>
+        <v>-301.53899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>81389.350482</v>
+        <v>81389.350481999994</v>
       </c>
       <c r="G19" s="1">
-        <v>22.608153</v>
+        <v>22.608153000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1260.990000</v>
+        <v>1260.99</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.511000</v>
+        <v>-260.51100000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>81399.865635</v>
+        <v>81399.865634999995</v>
       </c>
       <c r="L19" s="1">
-        <v>22.611074</v>
+        <v>22.611073999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.065000</v>
+        <v>-200.065</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>81410.095163</v>
+        <v>81410.095163000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.613915</v>
+        <v>22.613914999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1308.160000</v>
+        <v>1308.1600000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-181.642000</v>
+        <v>-181.642</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>81420.555256</v>
+        <v>81420.555256000007</v>
       </c>
       <c r="V19" s="1">
-        <v>22.616821</v>
+        <v>22.616821000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1321.250000</v>
+        <v>1321.25</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.851000</v>
+        <v>-167.851</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>81430.794203</v>
+        <v>81430.794202999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.619665</v>
+        <v>22.619665000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1338.120000</v>
+        <v>1338.12</v>
       </c>
       <c r="AC19" s="1">
-        <v>-165.126000</v>
+        <v>-165.126</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>81441.340605</v>
+        <v>81441.340605000005</v>
       </c>
       <c r="AF19" s="1">
         <v>22.622595</v>
       </c>
       <c r="AG19" s="1">
-        <v>1350.650000</v>
+        <v>1350.65</v>
       </c>
       <c r="AH19" s="1">
-        <v>-174.248000</v>
+        <v>-174.24799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>81451.570591</v>
+        <v>81451.570590999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.625436</v>
+        <v>22.625436000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1370.450000</v>
+        <v>1370.45</v>
       </c>
       <c r="AM19" s="1">
-        <v>-202.994000</v>
+        <v>-202.994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>81462.430038</v>
+        <v>81462.430038000006</v>
       </c>
       <c r="AP19" s="1">
         <v>22.628453</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="AR19" s="1">
-        <v>-245.605000</v>
+        <v>-245.60499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>81473.553314</v>
+        <v>81473.553314000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.631543</v>
+        <v>22.631543000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1414.880000</v>
+        <v>1414.88</v>
       </c>
       <c r="AW19" s="1">
-        <v>-304.116000</v>
+        <v>-304.11599999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>81484.559011</v>
+        <v>81484.559011000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.634600</v>
+        <v>22.634599999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1433.630000</v>
+        <v>1433.63</v>
       </c>
       <c r="BB19" s="1">
-        <v>-354.979000</v>
+        <v>-354.97899999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>81495.807812</v>
+        <v>81495.807811999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.637724</v>
+        <v>22.637723999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1517.210000</v>
+        <v>1517.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-597.293000</v>
+        <v>-597.29300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>81507.137894</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.640872</v>
+        <v>22.640872000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1669.150000</v>
+        <v>1669.15</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1030.240000</v>
+        <v>-1030.24</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>81517.616376</v>
+        <v>81517.616376000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.643782</v>
+        <v>22.643782000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1957.890000</v>
+        <v>1957.89</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1777.440000</v>
+        <v>-1777.44</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>81528.672201</v>
+        <v>81528.672200999994</v>
       </c>
       <c r="BT19" s="1">
         <v>22.646853</v>
       </c>
       <c r="BU19" s="1">
-        <v>2338.850000</v>
+        <v>2338.85</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2639.200000</v>
+        <v>-2639.2</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>81539.955195</v>
+        <v>81539.955195000002</v>
       </c>
       <c r="BY19" s="1">
         <v>22.649988</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2809.320000</v>
+        <v>2809.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3576.160000</v>
+        <v>-3576.16</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>81552.772810</v>
+        <v>81552.772809999995</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.653548</v>
+        <v>22.653548000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4183.000000</v>
+        <v>4183</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5825.960000</v>
+        <v>-5825.96</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>81378.928015</v>
+        <v>81378.928014999998</v>
       </c>
       <c r="B20" s="1">
-        <v>22.605258</v>
+        <v>22.605257999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.865000</v>
+        <v>-301.86500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>81389.694210</v>
+        <v>81389.694210000001</v>
       </c>
       <c r="G20" s="1">
         <v>22.608248</v>
       </c>
       <c r="H20" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.304000</v>
+        <v>-261.30399999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>81400.210851</v>
+        <v>81400.210850999996</v>
       </c>
       <c r="L20" s="1">
-        <v>22.611170</v>
+        <v>22.611170000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.999000</v>
+        <v>-199.999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>81410.443848</v>
+        <v>81410.443847999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.614012</v>
+        <v>22.614011999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1308.210000</v>
+        <v>1308.21</v>
       </c>
       <c r="S20" s="1">
-        <v>-181.826000</v>
+        <v>-181.82599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>81421.242215</v>
+        <v>81421.242215000006</v>
       </c>
       <c r="V20" s="1">
-        <v>22.617012</v>
+        <v>22.617011999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1321.280000</v>
+        <v>1321.28</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.924000</v>
+        <v>-167.92400000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>81431.493033</v>
+        <v>81431.493033000006</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.619859</v>
+        <v>22.619859000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="AC20" s="1">
-        <v>-165.139000</v>
+        <v>-165.13900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>81441.684332</v>
+        <v>81441.684332000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.622690</v>
+        <v>22.622689999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1350.600000</v>
+        <v>1350.6</v>
       </c>
       <c r="AH20" s="1">
-        <v>-174.242000</v>
+        <v>-174.24199999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>81451.913326</v>
+        <v>81451.913325999994</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.625531</v>
+        <v>22.625530999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM20" s="1">
-        <v>-202.988000</v>
+        <v>-202.988</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>81462.788610</v>
+        <v>81462.788610000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.628552</v>
+        <v>22.628551999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1391.240000</v>
+        <v>1391.24</v>
       </c>
       <c r="AR20" s="1">
-        <v>-245.587000</v>
+        <v>-245.58699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>81474.231841</v>
+        <v>81474.231841000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.631731</v>
+        <v>22.631730999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW20" s="1">
-        <v>-304.108000</v>
+        <v>-304.108</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>81485.237570</v>
+        <v>81485.237569999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.634788</v>
       </c>
       <c r="BA20" s="1">
-        <v>1433.660000</v>
+        <v>1433.66</v>
       </c>
       <c r="BB20" s="1">
-        <v>-354.988000</v>
+        <v>-354.988</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>81496.242308</v>
+        <v>81496.242308000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.637845</v>
+        <v>22.637844999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG20" s="1">
-        <v>-597.295000</v>
+        <v>-597.29499999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>81507.514887</v>
+        <v>81507.514886999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.640976</v>
+        <v>22.640975999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1669.160000</v>
+        <v>1669.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1030.180000</v>
+        <v>-1030.18</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>81518.035032</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.643899</v>
+        <v>22.643899000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1958.050000</v>
+        <v>1958.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1777.310000</v>
+        <v>-1777.31</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>81529.102253</v>
+        <v>81529.102253000005</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.646973</v>
+        <v>22.646972999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2339.020000</v>
+        <v>2339.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2639.180000</v>
+        <v>-2639.18</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>81540.362907</v>
+        <v>81540.362907000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.650101</v>
+        <v>22.650100999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2808.390000</v>
+        <v>2808.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3576.860000</v>
+        <v>-3576.86</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>81553.293640</v>
+        <v>81553.293640000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.653693</v>
+        <v>22.653693000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4184.280000</v>
+        <v>4184.28</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5839.170000</v>
+        <v>-5839.17</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>81379.280671</v>
       </c>
@@ -5364,814 +5780,814 @@
         <v>22.605356</v>
       </c>
       <c r="C21" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="D21" s="1">
-        <v>-301.354000</v>
+        <v>-301.35399999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>81390.040384</v>
+        <v>81390.040384000007</v>
       </c>
       <c r="G21" s="1">
         <v>22.608345</v>
       </c>
       <c r="H21" s="1">
-        <v>1261.110000</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.584000</v>
+        <v>-261.584</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>81400.561027</v>
+        <v>81400.561027000003</v>
       </c>
       <c r="L21" s="1">
-        <v>22.611267</v>
+        <v>22.611267000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1296.190000</v>
+        <v>1296.19</v>
       </c>
       <c r="N21" s="1">
-        <v>-199.857000</v>
+        <v>-199.857</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>81411.141685</v>
+        <v>81411.141684999995</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.614206</v>
+        <v>22.614205999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1308.220000</v>
+        <v>1308.22</v>
       </c>
       <c r="S21" s="1">
-        <v>-181.756000</v>
+        <v>-181.756</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>81421.585447</v>
+        <v>81421.585447000005</v>
       </c>
       <c r="V21" s="1">
-        <v>22.617107</v>
+        <v>22.617107000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1321.250000</v>
+        <v>1321.25</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.015000</v>
+        <v>-168.01499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>81431.841225</v>
+        <v>81431.841224999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.619956</v>
+        <v>22.619955999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1338.090000</v>
+        <v>1338.09</v>
       </c>
       <c r="AC21" s="1">
-        <v>-165.092000</v>
+        <v>-165.09200000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>81442.028556</v>
+        <v>81442.028556000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.622786</v>
+        <v>22.622786000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1350.670000</v>
+        <v>1350.67</v>
       </c>
       <c r="AH21" s="1">
-        <v>-174.229000</v>
+        <v>-174.22900000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>81452.265526</v>
+        <v>81452.265526000003</v>
       </c>
       <c r="AK21" s="1">
         <v>22.625629</v>
       </c>
       <c r="AL21" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="AM21" s="1">
-        <v>-203.008000</v>
+        <v>-203.00800000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>81463.466144</v>
+        <v>81463.466144000005</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.628741</v>
+        <v>22.628741000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="AR21" s="1">
-        <v>-245.565000</v>
+        <v>-245.565</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>81474.673777</v>
+        <v>81474.673777000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.631854</v>
+        <v>22.631854000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW21" s="1">
-        <v>-304.111000</v>
+        <v>-304.11099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>81485.631858</v>
+        <v>81485.631857999993</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.634898</v>
       </c>
       <c r="BA21" s="1">
-        <v>1433.690000</v>
+        <v>1433.69</v>
       </c>
       <c r="BB21" s="1">
-        <v>-354.992000</v>
+        <v>-354.99200000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>81496.601379</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.637945</v>
+        <v>22.637944999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1517.210000</v>
+        <v>1517.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-597.314000</v>
+        <v>-597.31399999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>81507.889830</v>
+        <v>81507.88983</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.641081</v>
       </c>
       <c r="BK21" s="1">
-        <v>1669.120000</v>
+        <v>1669.12</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1030.210000</v>
+        <v>-1030.21</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>81518.430344</v>
+        <v>81518.430343999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.644008</v>
+        <v>22.644007999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1957.870000</v>
+        <v>1957.87</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1777.170000</v>
+        <v>-1777.17</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>81529.532797</v>
+        <v>81529.532797000007</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.647092</v>
+        <v>22.647092000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2338.700000</v>
+        <v>2338.6999999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2639.400000</v>
+        <v>-2639.4</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>81540.827657</v>
+        <v>81540.827657000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.650230</v>
+        <v>22.650230000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2809.360000</v>
+        <v>2809.36</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3576.880000</v>
+        <v>-3576.88</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>81553.808488</v>
+        <v>81553.808487999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.653836</v>
+        <v>22.653835999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4177.660000</v>
+        <v>4177.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5835.790000</v>
+        <v>-5835.79</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>81379.622414</v>
+        <v>81379.622413999998</v>
       </c>
       <c r="B22" s="1">
-        <v>22.605451</v>
+        <v>22.605450999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1235.210000</v>
+        <v>1235.21</v>
       </c>
       <c r="D22" s="1">
-        <v>-301.219000</v>
+        <v>-301.21899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>81390.735812</v>
+        <v>81390.735811999999</v>
       </c>
       <c r="G22" s="1">
-        <v>22.608538</v>
+        <v>22.608537999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1260.240000</v>
+        <v>1260.24</v>
       </c>
       <c r="I22" s="1">
-        <v>-260.455000</v>
+        <v>-260.45499999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>81401.250962</v>
+        <v>81401.250962000006</v>
       </c>
       <c r="L22" s="1">
         <v>22.611459</v>
       </c>
       <c r="M22" s="1">
-        <v>1296.160000</v>
+        <v>1296.1600000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-199.830000</v>
+        <v>-199.83</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>81411.489908</v>
+        <v>81411.489908000003</v>
       </c>
       <c r="Q22" s="1">
         <v>22.614303</v>
       </c>
       <c r="R22" s="1">
-        <v>1308.090000</v>
+        <v>1308.0899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-181.769000</v>
+        <v>-181.76900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>81421.929174</v>
+        <v>81421.929174000004</v>
       </c>
       <c r="V22" s="1">
         <v>22.617203</v>
       </c>
       <c r="W22" s="1">
-        <v>1321.300000</v>
+        <v>1321.3</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.909000</v>
+        <v>-167.90899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>81432.189628</v>
+        <v>81432.189627999993</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.620053</v>
+        <v>22.620052999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="AC22" s="1">
-        <v>-165.047000</v>
+        <v>-165.047</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>81442.689755</v>
+        <v>81442.689754999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.622969</v>
+        <v>22.622969000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1350.610000</v>
+        <v>1350.61</v>
       </c>
       <c r="AH22" s="1">
-        <v>-174.198000</v>
+        <v>-174.19800000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81453.241644</v>
+        <v>81453.241643999994</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.625900</v>
+        <v>22.625900000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="AM22" s="1">
-        <v>-202.958000</v>
+        <v>-202.958</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>81463.868399</v>
+        <v>81463.868398999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.628852</v>
+        <v>22.628851999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR22" s="1">
-        <v>-245.567000</v>
+        <v>-245.56700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>81475.038832</v>
+        <v>81475.038832000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.631955</v>
+        <v>22.631955000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW22" s="1">
-        <v>-304.113000</v>
+        <v>-304.113</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>81486.019730</v>
+        <v>81486.01973</v>
       </c>
       <c r="AZ22" s="1">
         <v>22.635005</v>
       </c>
       <c r="BA22" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB22" s="1">
-        <v>-355.007000</v>
+        <v>-355.00700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>81496.967209</v>
+        <v>81496.967208999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.638046</v>
+        <v>22.638045999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1517.160000</v>
+        <v>1517.16</v>
       </c>
       <c r="BG22" s="1">
-        <v>-597.272000</v>
+        <v>-597.27200000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>81508.319365</v>
+        <v>81508.319365000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.641200</v>
+        <v>22.641200000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1669.170000</v>
+        <v>1669.17</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1030.230000</v>
+        <v>-1030.23</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>81518.852438</v>
+        <v>81518.852438000002</v>
       </c>
       <c r="BO22" s="1">
         <v>22.644126</v>
       </c>
       <c r="BP22" s="1">
-        <v>1957.870000</v>
+        <v>1957.87</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1777.300000</v>
+        <v>-1777.3</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>81529.941005</v>
+        <v>81529.941005000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.647206</v>
+        <v>22.647206000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2338.890000</v>
+        <v>2338.89</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2639.610000</v>
+        <v>-2639.61</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>81541.240857</v>
+        <v>81541.240856999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.650345</v>
+        <v>22.650345000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2809.320000</v>
+        <v>2809.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3576.090000</v>
+        <v>-3576.09</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>81554.364509</v>
+        <v>81554.364509000006</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.653990</v>
+        <v>22.65399</v>
       </c>
       <c r="CE22" s="1">
-        <v>4182.210000</v>
+        <v>4182.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5826.460000</v>
+        <v>-5826.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>81380.304910</v>
+        <v>81380.304910000006</v>
       </c>
       <c r="B23" s="1">
-        <v>22.605640</v>
+        <v>22.605640000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-301.596000</v>
+        <v>-301.596</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>81391.083995</v>
+        <v>81391.083994999994</v>
       </c>
       <c r="G23" s="1">
-        <v>22.608634</v>
+        <v>22.608633999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1259.980000</v>
+        <v>1259.98</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.915000</v>
+        <v>-260.91500000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>81401.596178</v>
+        <v>81401.596178000007</v>
       </c>
       <c r="L23" s="1">
-        <v>22.611554</v>
+        <v>22.611554000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1296.530000</v>
+        <v>1296.53</v>
       </c>
       <c r="N23" s="1">
-        <v>-199.958000</v>
+        <v>-199.958</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>81411.836083</v>
+        <v>81411.836083000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.614399</v>
+        <v>22.614398999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="S23" s="1">
-        <v>-181.740000</v>
+        <v>-181.74</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>81422.597285</v>
+        <v>81422.597284999996</v>
       </c>
       <c r="V23" s="1">
-        <v>22.617388</v>
+        <v>22.617387999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1321.190000</v>
+        <v>1321.19</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.187000</v>
+        <v>-168.18700000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>81432.861032</v>
+        <v>81432.861032000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.620239</v>
+        <v>22.620239000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1338.160000</v>
+        <v>1338.16</v>
       </c>
       <c r="AC23" s="1">
-        <v>-165.217000</v>
+        <v>-165.21700000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>81443.059793</v>
+        <v>81443.059792999993</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.623072</v>
+        <v>22.623072000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1350.630000</v>
+        <v>1350.63</v>
       </c>
       <c r="AH23" s="1">
-        <v>-174.198000</v>
+        <v>-174.19800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81453.659740</v>
+        <v>81453.659740000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.626017</v>
+        <v>22.626017000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM23" s="1">
-        <v>-202.984000</v>
+        <v>-202.98400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>81464.254319</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.628960</v>
+        <v>22.628959999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1391.230000</v>
+        <v>1391.23</v>
       </c>
       <c r="AR23" s="1">
-        <v>-245.558000</v>
+        <v>-245.55799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>81475.403392</v>
+        <v>81475.403391999993</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.632056</v>
+        <v>22.632055999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW23" s="1">
-        <v>-304.076000</v>
+        <v>-304.07600000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>81486.378337</v>
+        <v>81486.378337000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.635105</v>
+        <v>22.635104999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB23" s="1">
-        <v>-354.949000</v>
+        <v>-354.94900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>81497.393490</v>
+        <v>81497.393490000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.638165</v>
+        <v>22.638165000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG23" s="1">
-        <v>-597.288000</v>
+        <v>-597.28800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>81508.666247</v>
+        <v>81508.666247000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.641296</v>
+        <v>22.641296000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1669.140000</v>
+        <v>1669.14</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1030.080000</v>
+        <v>-1030.08</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>81519.247223</v>
+        <v>81519.247222999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.644235</v>
+        <v>22.644234999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1957.760000</v>
+        <v>1957.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1777.260000</v>
+        <v>-1777.26</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>81530.371534</v>
+        <v>81530.371534000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.647325</v>
+        <v>22.647324999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2338.460000</v>
+        <v>2338.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2639.470000</v>
+        <v>-2639.47</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>81541.663416</v>
+        <v>81541.663415999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.650462</v>
+        <v>22.650462000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2808.300000</v>
+        <v>2808.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3576.590000</v>
+        <v>-3576.59</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>81554.891222</v>
+        <v>81554.891222000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.654136</v>
+        <v>22.654136000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4185.150000</v>
+        <v>4185.1499999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5839.620000</v>
+        <v>-5839.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>81380.646655</v>
+        <v>81380.646655000004</v>
       </c>
       <c r="B24" s="1">
-        <v>22.605735</v>
+        <v>22.605734999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1235.140000</v>
+        <v>1235.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-301.400000</v>
+        <v>-301.39999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>81391.427199</v>
+        <v>81391.427198999998</v>
       </c>
       <c r="G24" s="1">
-        <v>22.608730</v>
+        <v>22.608730000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1259.620000</v>
+        <v>1259.6199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.863000</v>
+        <v>-260.863</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>81402.259086</v>
+        <v>81402.259086000005</v>
       </c>
       <c r="L24" s="1">
         <v>22.611739</v>
       </c>
       <c r="M24" s="1">
-        <v>1296.320000</v>
+        <v>1296.32</v>
       </c>
       <c r="N24" s="1">
-        <v>-199.710000</v>
+        <v>-199.71</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>81412.499268</v>
@@ -6180,103 +6596,103 @@
         <v>22.614583</v>
       </c>
       <c r="R24" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-181.675000</v>
+        <v>-181.67500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>81422.960862</v>
+        <v>81422.960862000007</v>
       </c>
       <c r="V24" s="1">
-        <v>22.617489</v>
+        <v>22.617488999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1321.170000</v>
+        <v>1321.17</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.897000</v>
+        <v>-167.89699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>81433.234488</v>
+        <v>81433.234488000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.620343</v>
+        <v>22.620342999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="AC24" s="1">
-        <v>-165.144000</v>
+        <v>-165.14400000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>81443.403499</v>
+        <v>81443.403498999993</v>
       </c>
       <c r="AF24" s="1">
         <v>22.623168</v>
       </c>
       <c r="AG24" s="1">
-        <v>1350.640000</v>
+        <v>1350.64</v>
       </c>
       <c r="AH24" s="1">
-        <v>-174.271000</v>
+        <v>-174.27099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>81454.006940</v>
+        <v>81454.006940000007</v>
       </c>
       <c r="AK24" s="1">
         <v>22.626113</v>
       </c>
       <c r="AL24" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AM24" s="1">
-        <v>-202.980000</v>
+        <v>-202.98</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>81464.613886</v>
+        <v>81464.613886000006</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.629059</v>
+        <v>22.629059000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1391.270000</v>
+        <v>1391.27</v>
       </c>
       <c r="AR24" s="1">
-        <v>-245.617000</v>
+        <v>-245.61699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>81475.835871</v>
+        <v>81475.835871000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.632177</v>
+        <v>22.632176999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1414.910000</v>
+        <v>1414.91</v>
       </c>
       <c r="AW24" s="1">
-        <v>-304.113000</v>
+        <v>-304.113</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>81486.816305</v>
@@ -6285,120 +6701,120 @@
         <v>22.635227</v>
       </c>
       <c r="BA24" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB24" s="1">
-        <v>-354.999000</v>
+        <v>-354.99900000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>81497.689603</v>
+        <v>81497.689603000006</v>
       </c>
       <c r="BE24" s="1">
         <v>22.638247</v>
       </c>
       <c r="BF24" s="1">
-        <v>1517.210000</v>
+        <v>1517.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-597.273000</v>
+        <v>-597.27300000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>81509.040549</v>
+        <v>81509.040548999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.641400</v>
+        <v>22.641400000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1669.110000</v>
+        <v>1669.11</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1030.140000</v>
+        <v>-1030.1400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>81519.672326</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.644353</v>
+        <v>22.644352999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1958.010000</v>
+        <v>1958.01</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1777.250000</v>
+        <v>-1777.25</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>81530.786150</v>
+        <v>81530.78615</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.647441</v>
+        <v>22.647441000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2338.520000</v>
+        <v>2338.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2639.530000</v>
+        <v>-2639.53</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>81542.092455</v>
+        <v>81542.092455000005</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.650581</v>
+        <v>22.650580999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2808.880000</v>
+        <v>2808.88</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3576.620000</v>
+        <v>-3576.62</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>81555.410038</v>
+        <v>81555.410038000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.654281</v>
+        <v>22.654281000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4197.740000</v>
+        <v>4197.74</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5833.400000</v>
+        <v>-5833.4</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>81380.988396</v>
+        <v>81380.988396000001</v>
       </c>
       <c r="B25" s="1">
-        <v>22.605830</v>
+        <v>22.605830000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1235.040000</v>
+        <v>1235.04</v>
       </c>
       <c r="D25" s="1">
-        <v>-301.496000</v>
+        <v>-301.49599999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>81392.082446</v>
@@ -6407,148 +6823,148 @@
         <v>22.608912</v>
       </c>
       <c r="H25" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.242000</v>
+        <v>-261.24200000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>81402.633312</v>
+        <v>81402.633312000005</v>
       </c>
       <c r="L25" s="1">
         <v>22.611843</v>
       </c>
       <c r="M25" s="1">
-        <v>1296.220000</v>
+        <v>1296.22</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.935000</v>
+        <v>-199.935</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>81412.882642</v>
+        <v>81412.882641999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.614690</v>
+        <v>22.61469</v>
       </c>
       <c r="R25" s="1">
-        <v>1308.280000</v>
+        <v>1308.28</v>
       </c>
       <c r="S25" s="1">
-        <v>-181.695000</v>
+        <v>-181.69499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>81423.309044</v>
+        <v>81423.309043999994</v>
       </c>
       <c r="V25" s="1">
-        <v>22.617586</v>
+        <v>22.617585999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1321.240000</v>
+        <v>1321.24</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.958000</v>
+        <v>-167.958</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>81433.581687</v>
+        <v>81433.581686999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.620439</v>
+        <v>22.620439000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1338.060000</v>
+        <v>1338.06</v>
       </c>
       <c r="AC25" s="1">
-        <v>-165.222000</v>
+        <v>-165.22200000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>81443.754169</v>
+        <v>81443.754169000007</v>
       </c>
       <c r="AF25" s="1">
         <v>22.623265</v>
       </c>
       <c r="AG25" s="1">
-        <v>1350.600000</v>
+        <v>1350.6</v>
       </c>
       <c r="AH25" s="1">
-        <v>-174.263000</v>
+        <v>-174.26300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>81454.437738</v>
+        <v>81454.437737999993</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.626233</v>
+        <v>22.626232999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1370.430000</v>
+        <v>1370.43</v>
       </c>
       <c r="AM25" s="1">
-        <v>-202.996000</v>
+        <v>-202.99600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>81465.043951</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.629179</v>
+        <v>22.629179000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1391.220000</v>
+        <v>1391.22</v>
       </c>
       <c r="AR25" s="1">
-        <v>-245.578000</v>
+        <v>-245.578</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>81476.132975</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.632259</v>
+        <v>22.632259000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1414.880000</v>
+        <v>1414.88</v>
       </c>
       <c r="AW25" s="1">
-        <v>-304.080000</v>
+        <v>-304.08</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>81487.097040</v>
+        <v>81487.097039999993</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.635305</v>
+        <v>22.635304999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1433.670000</v>
+        <v>1433.67</v>
       </c>
       <c r="BB25" s="1">
-        <v>-354.993000</v>
+        <v>-354.99299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>81498.050399</v>
@@ -6557,347 +6973,348 @@
         <v>22.638347</v>
       </c>
       <c r="BF25" s="1">
-        <v>1517.170000</v>
+        <v>1517.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-597.264000</v>
+        <v>-597.26400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>81509.421011</v>
+        <v>81509.421010999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>22.641506</v>
       </c>
       <c r="BK25" s="1">
-        <v>1669.200000</v>
+        <v>1669.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1030.110000</v>
+        <v>-1030.1099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>81520.067109</v>
+        <v>81520.067108999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.644463</v>
+        <v>22.644462999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1776.990000</v>
+        <v>-1776.99</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>81531.211750</v>
+        <v>81531.211750000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.647559</v>
+        <v>22.647559000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2338.240000</v>
+        <v>2338.2399999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2639.700000</v>
+        <v>-2639.7</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>81542.507608</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.650697</v>
+        <v>22.650697000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2808.750000</v>
+        <v>2808.75</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3576.190000</v>
+        <v>-3576.19</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>81555.928490</v>
+        <v>81555.928490000006</v>
       </c>
       <c r="CD25" s="1">
         <v>22.654425</v>
       </c>
       <c r="CE25" s="1">
-        <v>4189.150000</v>
+        <v>4189.1499999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5820.210000</v>
+        <v>-5820.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>81381.644605</v>
+        <v>81381.644604999994</v>
       </c>
       <c r="B26" s="1">
         <v>22.606012</v>
       </c>
       <c r="C26" s="1">
-        <v>1234.810000</v>
+        <v>1234.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-301.431000</v>
+        <v>-301.43099999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>81392.459922</v>
+        <v>81392.459921999995</v>
       </c>
       <c r="G26" s="1">
-        <v>22.609017</v>
+        <v>22.609017000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1260.110000</v>
+        <v>1260.1099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.125000</v>
+        <v>-260.125</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>81402.977537</v>
+        <v>81402.977536999999</v>
       </c>
       <c r="L26" s="1">
-        <v>22.611938</v>
+        <v>22.611937999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1296.090000</v>
+        <v>1296.0899999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-199.783000</v>
+        <v>-199.78299999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>81413.222402</v>
+        <v>81413.222401999999</v>
       </c>
       <c r="Q26" s="1">
         <v>22.614784</v>
       </c>
       <c r="R26" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="S26" s="1">
-        <v>-181.747000</v>
+        <v>-181.74700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>81423.652811</v>
+        <v>81423.652811000007</v>
       </c>
       <c r="V26" s="1">
-        <v>22.617681</v>
+        <v>22.617681000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1321.100000</v>
+        <v>1321.1</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.959000</v>
+        <v>-167.959</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>81433.928886</v>
+        <v>81433.928885999994</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.620536</v>
+        <v>22.620536000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="AC26" s="1">
-        <v>-165.135000</v>
+        <v>-165.13499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>81444.179240</v>
+        <v>81444.179239999998</v>
       </c>
       <c r="AF26" s="1">
         <v>22.623383</v>
       </c>
       <c r="AG26" s="1">
-        <v>1350.650000</v>
+        <v>1350.65</v>
       </c>
       <c r="AH26" s="1">
-        <v>-174.190000</v>
+        <v>-174.19</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>81454.709276</v>
+        <v>81454.709275999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.626308</v>
+        <v>22.626308000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="AM26" s="1">
-        <v>-202.974000</v>
+        <v>-202.97399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>81465.335069</v>
+        <v>81465.335068999993</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.629260</v>
+        <v>22.629259999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1391.220000</v>
+        <v>1391.22</v>
       </c>
       <c r="AR26" s="1">
-        <v>-245.602000</v>
+        <v>-245.602</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>81476.493566</v>
+        <v>81476.493566000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.632359</v>
+        <v>22.632359000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1414.890000</v>
+        <v>1414.89</v>
       </c>
       <c r="AW26" s="1">
-        <v>-304.088000</v>
+        <v>-304.08800000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>81487.568771</v>
+        <v>81487.568771000006</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.635436</v>
+        <v>22.635435999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1433.680000</v>
+        <v>1433.68</v>
       </c>
       <c r="BB26" s="1">
-        <v>-354.993000</v>
+        <v>-354.99299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>81498.409297</v>
+        <v>81498.409297000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.638447</v>
+        <v>22.638446999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG26" s="1">
-        <v>-597.301000</v>
+        <v>-597.30100000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>81510.171427</v>
+        <v>81510.171426999994</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.641714</v>
       </c>
       <c r="BK26" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1030.100000</v>
+        <v>-1030.0999999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>81520.497140</v>
+        <v>81520.497140000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.644583</v>
+        <v>22.644583000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1957.770000</v>
+        <v>1957.77</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1777.230000</v>
+        <v>-1777.23</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>81531.643237</v>
+        <v>81531.643236999997</v>
       </c>
       <c r="BT26" s="1">
         <v>22.647679</v>
       </c>
       <c r="BU26" s="1">
-        <v>2338.470000</v>
+        <v>2338.4699999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2639.940000</v>
+        <v>-2639.94</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>81542.925239</v>
+        <v>81542.925239000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.650813</v>
+        <v>22.650812999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2808.530000</v>
+        <v>2808.53</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3575.650000</v>
+        <v>-3575.65</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>81556.450644</v>
+        <v>81556.450643999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.654570</v>
+        <v>22.65457</v>
       </c>
       <c r="CE26" s="1">
-        <v>4195.570000</v>
+        <v>4195.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5824.660000</v>
+        <v>-5824.66</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>